--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250705.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250705.xlsx
@@ -451,100 +451,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110TWN16689KT</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tea Bags - Lemon Ginger (Twinings)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.99</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>989.82</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110TWN05328KT</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tea Bags - Irish Breakfast (Twinings)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.99</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>131.94</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tea Bags - English Breakfast (Twinings)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>224.90</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>171.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
